--- a/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik november 2024.xlsx
+++ b/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik november 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -541,7 +541,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
@@ -559,22 +559,16 @@
     <t>1% filler,14% containsTotalMass,14% containsSingleMass,14% containsProduct,14% containsProductNr,14% containsAmount,14% SingleMassHeader,14% TotalMassHeader,</t>
   </si>
   <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -603,7 +597,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,7 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -688,11 +682,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF828081"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -729,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -803,10 +792,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -815,24 +800,34 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2731,7 +2726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B500C43C-C131-45D1-8C31-E405DBAD483A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EBEE6C-D285-4871-B22F-932B59AE7F5C}">
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3114,9 +3109,6 @@
       <c r="G17" s="28">
         <v>562.62</v>
       </c>
-      <c r="H17" s="40" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
@@ -3509,7 +3501,7 @@
       <c r="B34" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="25">
@@ -3650,7 +3642,7 @@
       <c r="A40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="39">
         <v>3100</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -3658,11 +3650,11 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="42">
+      <c r="F40" s="40">
         <f>SUM(F7:F39)</f>
         <v>1839</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="41">
         <f>SUM(G7:G39)</f>
         <v>73212.19999999998</v>
       </c>
@@ -4277,7 +4269,7 @@
       <c r="A67" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="41">
+      <c r="B67" s="39">
         <v>3100</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -4285,11 +4277,11 @@
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="42">
+      <c r="F67" s="40">
         <f>SUM(F43:F66)</f>
         <v>1929</v>
       </c>
-      <c r="G67" s="43">
+      <c r="G67" s="41">
         <f>SUM(G43:G66)</f>
         <v>67103.31999999999</v>
       </c>
@@ -4305,11 +4297,11 @@
         <v>155</v>
       </c>
       <c r="E69" s="4"/>
-      <c r="F69" s="42">
+      <c r="F69" s="40">
         <f>+F40+F67</f>
         <v>3768</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G69" s="41">
         <f>+G40+G67</f>
         <v>140315.51999999996</v>
       </c>
@@ -4328,11 +4320,11 @@
       <c r="E70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F70" s="44">
+      <c r="F70" s="42">
         <f>+F67/F69</f>
         <v>0.5119426751592356</v>
       </c>
-      <c r="G70" s="44">
+      <c r="G70" s="42">
         <f>+G67/G69</f>
         <v>0.47823163111250994</v>
       </c>
@@ -4344,7 +4336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69634AF-118C-4022-823D-EFDCBF4AFCFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD511C-4C57-4C6A-A668-B42316F2A06F}">
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4397,20 +4389,20 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="D6" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="F6" s="50" t="s">
         <v>176</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>177</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -4420,10 +4412,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
@@ -4432,7 +4424,7 @@
       <c r="E7" s="51">
         <v>4</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="53">
         <f>+D7*E7</f>
         <v>20</v>
       </c>
@@ -4444,10 +4436,10 @@
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5">
@@ -4456,7 +4448,7 @@
       <c r="E8" s="51">
         <v>1</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="53">
         <f ref="F8:F39" t="shared" si="0">+D8*E8</f>
         <v>1</v>
       </c>
@@ -4468,10 +4460,10 @@
       <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5">
@@ -4480,7 +4472,7 @@
       <c r="E9" s="51">
         <v>2</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4492,10 +4484,10 @@
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="5">
@@ -4504,7 +4496,7 @@
       <c r="E10" s="51">
         <v>5</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4516,10 +4508,10 @@
       <c r="A11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5">
@@ -4528,7 +4520,7 @@
       <c r="E11" s="51">
         <v>1</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4540,10 +4532,10 @@
       <c r="A12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5">
@@ -4552,7 +4544,7 @@
       <c r="E12" s="51">
         <v>6</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4564,10 +4556,10 @@
       <c r="A13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="5">
@@ -4576,7 +4568,7 @@
       <c r="E13" s="51">
         <v>5</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4588,10 +4580,10 @@
       <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="5">
@@ -4600,7 +4592,7 @@
       <c r="E14" s="51">
         <v>11</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="53">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -4612,10 +4604,10 @@
       <c r="A15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="5">
@@ -4624,7 +4616,7 @@
       <c r="E15" s="51">
         <v>12</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="53">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -4636,10 +4628,10 @@
       <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="5">
@@ -4648,7 +4640,7 @@
       <c r="E16" s="51">
         <v>14</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="53">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -4660,10 +4652,10 @@
       <c r="A17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="5">
@@ -4672,7 +4664,7 @@
       <c r="E17" s="51">
         <v>2</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4684,10 +4676,10 @@
       <c r="A18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="5">
@@ -4696,7 +4688,7 @@
       <c r="E18" s="51">
         <v>23</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="53">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -4708,10 +4700,10 @@
       <c r="A19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="48" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="5">
@@ -4720,7 +4712,7 @@
       <c r="E19" s="51">
         <v>4</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -4732,10 +4724,10 @@
       <c r="A20" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="48" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="5">
@@ -4744,7 +4736,7 @@
       <c r="E20" s="51">
         <v>1</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4756,10 +4748,10 @@
       <c r="A21" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="5">
@@ -4768,7 +4760,7 @@
       <c r="E21" s="51">
         <v>126</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="53">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
@@ -4780,10 +4772,10 @@
       <c r="A22" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="48" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="5">
@@ -4792,7 +4784,7 @@
       <c r="E22" s="51">
         <v>1</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4804,10 +4796,10 @@
       <c r="A23" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="48" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="5">
@@ -4816,7 +4808,7 @@
       <c r="E23" s="51">
         <v>5</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4828,10 +4820,10 @@
       <c r="A24" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="48" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="5">
@@ -4840,7 +4832,7 @@
       <c r="E24" s="51">
         <v>6</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4852,10 +4844,10 @@
       <c r="A25" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="5">
@@ -4864,7 +4856,7 @@
       <c r="E25" s="51">
         <v>6</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="53">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -4876,10 +4868,10 @@
       <c r="A26" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="5">
@@ -4888,7 +4880,7 @@
       <c r="E26" s="51">
         <v>10</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4900,10 +4892,10 @@
       <c r="A27" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="48" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="5">
@@ -4912,7 +4904,7 @@
       <c r="E27" s="51">
         <v>3</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4924,10 +4916,10 @@
       <c r="A28" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="5">
@@ -4936,7 +4928,7 @@
       <c r="E28" s="51">
         <v>54</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="53">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
@@ -4948,10 +4940,10 @@
       <c r="A29" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="5">
@@ -4960,7 +4952,7 @@
       <c r="E29" s="51">
         <v>4</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4972,10 +4964,10 @@
       <c r="A30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="48" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="5">
@@ -4984,7 +4976,7 @@
       <c r="E30" s="51">
         <v>4</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4996,10 +4988,10 @@
       <c r="A31" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="5">
@@ -5008,7 +5000,7 @@
       <c r="E31" s="51">
         <v>4</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -5020,10 +5012,10 @@
       <c r="A32" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="48" t="s">
         <v>75</v>
       </c>
       <c r="D32" s="5">
@@ -5032,7 +5024,7 @@
       <c r="E32" s="51">
         <v>1</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5044,10 +5036,10 @@
       <c r="A33" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="48" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="5">
@@ -5056,7 +5048,7 @@
       <c r="E33" s="51">
         <v>15</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="53">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -5068,19 +5060,19 @@
       <c r="A34" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="48" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="51">
         <v>51</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -5092,19 +5084,19 @@
       <c r="A35" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="48" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="5">
         <v>3</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="51">
         <v>6</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="53">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -5116,19 +5108,19 @@
       <c r="A36" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="48" t="s">
         <v>86</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="51">
         <v>3</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5140,19 +5132,19 @@
       <c r="A37" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="48" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="51">
         <v>492</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="53">
         <f t="shared" si="0"/>
         <v>492</v>
       </c>
@@ -5164,19 +5156,19 @@
       <c r="A38" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="48" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="5">
         <v>3</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="51">
         <v>151</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="53">
         <f t="shared" si="0"/>
         <v>453</v>
       </c>
@@ -5188,19 +5180,19 @@
       <c r="A39" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="48" t="s">
         <v>94</v>
       </c>
       <c r="D39" s="5">
         <v>3</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="51">
         <v>56</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="53">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
@@ -5212,15 +5204,15 @@
       <c r="A40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="46">
         <v>3100</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="49" t="s">
         <v>96</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3">
+      <c r="E40" s="52"/>
+      <c r="F40" s="54">
         <f>SUM(F7:F39)</f>
         <v>1839</v>
       </c>
@@ -5240,20 +5232,20 @@
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="50" t="s">
         <v>176</v>
-      </c>
-      <c r="F42" s="50" t="s">
-        <v>177</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>10</v>
@@ -5263,10 +5255,10 @@
       <c r="A43" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="48" t="s">
         <v>99</v>
       </c>
       <c r="D43" s="5">
@@ -5275,7 +5267,7 @@
       <c r="E43" s="51">
         <v>184</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="53">
         <f>+D43*E43</f>
         <v>920</v>
       </c>
@@ -5287,10 +5279,10 @@
       <c r="A44" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>101</v>
       </c>
       <c r="D44" s="5">
@@ -5299,7 +5291,7 @@
       <c r="E44" s="51">
         <v>36</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="53">
         <f ref="F44:F66" t="shared" si="1">+D44*E44</f>
         <v>36</v>
       </c>
@@ -5311,10 +5303,10 @@
       <c r="A45" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="48" t="s">
         <v>103</v>
       </c>
       <c r="D45" s="5">
@@ -5323,7 +5315,7 @@
       <c r="E45" s="51">
         <v>15</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="53">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -5335,10 +5327,10 @@
       <c r="A46" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="48" t="s">
         <v>106</v>
       </c>
       <c r="D46" s="5">
@@ -5347,7 +5339,7 @@
       <c r="E46" s="51">
         <v>4</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5359,10 +5351,10 @@
       <c r="A47" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>108</v>
       </c>
       <c r="D47" s="5">
@@ -5371,7 +5363,7 @@
       <c r="E47" s="51">
         <v>7</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="53">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -5383,10 +5375,10 @@
       <c r="A48" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="48" t="s">
         <v>110</v>
       </c>
       <c r="D48" s="5">
@@ -5395,7 +5387,7 @@
       <c r="E48" s="51">
         <v>13</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="53">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -5407,10 +5399,10 @@
       <c r="A49" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="5">
@@ -5419,7 +5411,7 @@
       <c r="E49" s="51">
         <v>2</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="53">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5431,10 +5423,10 @@
       <c r="A50" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="48" t="s">
         <v>115</v>
       </c>
       <c r="D50" s="5">
@@ -5443,7 +5435,7 @@
       <c r="E50" s="51">
         <v>5</v>
       </c>
-      <c r="F50" s="52">
+      <c r="F50" s="53">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -5455,10 +5447,10 @@
       <c r="A51" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="48" t="s">
         <v>117</v>
       </c>
       <c r="D51" s="5">
@@ -5467,7 +5459,7 @@
       <c r="E51" s="51">
         <v>2</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="53">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5479,10 +5471,10 @@
       <c r="A52" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="48" t="s">
         <v>120</v>
       </c>
       <c r="D52" s="5">
@@ -5491,7 +5483,7 @@
       <c r="E52" s="51">
         <v>1</v>
       </c>
-      <c r="F52" s="52">
+      <c r="F52" s="53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5503,10 +5495,10 @@
       <c r="A53" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>122</v>
       </c>
       <c r="D53" s="5">
@@ -5515,7 +5507,7 @@
       <c r="E53" s="51">
         <v>8</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="53">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -5527,10 +5519,10 @@
       <c r="A54" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="48" t="s">
         <v>125</v>
       </c>
       <c r="D54" s="5">
@@ -5539,7 +5531,7 @@
       <c r="E54" s="51">
         <v>39</v>
       </c>
-      <c r="F54" s="52">
+      <c r="F54" s="53">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -5551,10 +5543,10 @@
       <c r="A55" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="48" t="s">
         <v>128</v>
       </c>
       <c r="D55" s="5">
@@ -5563,7 +5555,7 @@
       <c r="E55" s="51">
         <v>5</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="53">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -5575,10 +5567,10 @@
       <c r="A56" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="5">
@@ -5587,7 +5579,7 @@
       <c r="E56" s="51">
         <v>28</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="53">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -5599,10 +5591,10 @@
       <c r="A57" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="48" t="s">
         <v>133</v>
       </c>
       <c r="D57" s="5">
@@ -5611,7 +5603,7 @@
       <c r="E57" s="51">
         <v>14</v>
       </c>
-      <c r="F57" s="52">
+      <c r="F57" s="53">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5623,10 +5615,10 @@
       <c r="A58" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="48" t="s">
         <v>135</v>
       </c>
       <c r="D58" s="5">
@@ -5635,7 +5627,7 @@
       <c r="E58" s="51">
         <v>19</v>
       </c>
-      <c r="F58" s="52">
+      <c r="F58" s="53">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -5647,10 +5639,10 @@
       <c r="A59" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="48" t="s">
         <v>137</v>
       </c>
       <c r="D59" s="5">
@@ -5659,7 +5651,7 @@
       <c r="E59" s="51">
         <v>10</v>
       </c>
-      <c r="F59" s="52">
+      <c r="F59" s="53">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5671,10 +5663,10 @@
       <c r="A60" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="48" t="s">
         <v>139</v>
       </c>
       <c r="D60" s="5">
@@ -5683,7 +5675,7 @@
       <c r="E60" s="51">
         <v>6</v>
       </c>
-      <c r="F60" s="52">
+      <c r="F60" s="53">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5695,10 +5687,10 @@
       <c r="A61" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="48" t="s">
         <v>141</v>
       </c>
       <c r="D61" s="5">
@@ -5707,7 +5699,7 @@
       <c r="E61" s="51">
         <v>12</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="53">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -5719,10 +5711,10 @@
       <c r="A62" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="48" t="s">
         <v>144</v>
       </c>
       <c r="D62" s="5">
@@ -5731,7 +5723,7 @@
       <c r="E62" s="51">
         <v>89</v>
       </c>
-      <c r="F62" s="52">
+      <c r="F62" s="53">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
@@ -5743,10 +5735,10 @@
       <c r="A63" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="48" t="s">
         <v>146</v>
       </c>
       <c r="D63" s="5">
@@ -5755,7 +5747,7 @@
       <c r="E63" s="51">
         <v>17</v>
       </c>
-      <c r="F63" s="52">
+      <c r="F63" s="53">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -5767,10 +5759,10 @@
       <c r="A64" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="48" t="s">
         <v>148</v>
       </c>
       <c r="D64" s="5">
@@ -5779,7 +5771,7 @@
       <c r="E64" s="51">
         <v>29</v>
       </c>
-      <c r="F64" s="52">
+      <c r="F64" s="53">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
@@ -5791,10 +5783,10 @@
       <c r="A65" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="48" t="s">
         <v>150</v>
       </c>
       <c r="D65" s="5">
@@ -5803,7 +5795,7 @@
       <c r="E65" s="51">
         <v>114</v>
       </c>
-      <c r="F65" s="52">
+      <c r="F65" s="53">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
@@ -5815,10 +5807,10 @@
       <c r="A66" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="48" t="s">
         <v>153</v>
       </c>
       <c r="D66" s="5">
@@ -5827,7 +5819,7 @@
       <c r="E66" s="51">
         <v>16</v>
       </c>
-      <c r="F66" s="52">
+      <c r="F66" s="53">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -5839,15 +5831,15 @@
       <c r="A67" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="46">
         <v>3100</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="49" t="s">
         <v>96</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="3">
+      <c r="E67" s="52"/>
+      <c r="F67" s="54">
         <f>SUM(F43:F66)</f>
         <v>1929</v>
       </c>
